--- a/Tarea 03/cubic-anterior.xlsx
+++ b/Tarea 03/cubic-anterior.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F26DE96-868A-44F6-9720-CA472067259F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F63328BA-6A56-4A0B-8FAE-153D6011A319}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubicaciones" sheetId="5" r:id="rId1"/>
@@ -2781,29 +2781,20 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2832,6 +2823,30 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2854,21 +2869,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4542,8 +4542,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:AA88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="118">
-        <f t="shared" si="0"/>
+        <f>N65</f>
         <v>44.458700000000007</v>
       </c>
       <c r="S6" s="118">
@@ -4889,15 +4889,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T6" s="118">
-        <f t="shared" ref="T6:T28" si="19">N6+O6+0.25*(P6+Q6)</f>
+        <f>N6+O6+0.25*(P6+Q6)</f>
         <v>258.88911999999999</v>
       </c>
       <c r="U6" s="184">
-        <f t="shared" ref="U6:U28" si="20">SUM(R6:T6)</f>
+        <f>SUM(R6:T6)</f>
         <v>435.96642000000003</v>
       </c>
       <c r="V6" s="131">
-        <f t="shared" ref="V6:V28" si="21">U6/(M6+J6)</f>
+        <f t="shared" ref="V6:V28" si="19">U6/(M6+J6)</f>
         <v>1.0628065128728947</v>
       </c>
       <c r="X6" s="245">
@@ -4975,15 +4975,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T7" s="118">
+        <f t="shared" ref="T6:T28" si="20">N7+O7+0.25*(P7+Q7)</f>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U7" s="184">
+        <f t="shared" ref="U6:U28" si="21">SUM(R7:T7)</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V7" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U7" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V7" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X7" s="245">
@@ -5055,15 +5055,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T8" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U8" s="184">
+        <f t="shared" si="21"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V8" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U8" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V8" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X8" s="245">
@@ -5138,15 +5138,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T9" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U9" s="184">
+        <f t="shared" si="21"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V9" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U9" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V9" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X9" s="245">
@@ -5224,15 +5224,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T10" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U10" s="184">
+        <f t="shared" si="21"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V10" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U10" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V10" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X10" s="245">
@@ -5310,15 +5310,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T11" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U11" s="184">
+        <f t="shared" si="21"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V11" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U11" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V11" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X11" s="245">
@@ -5396,15 +5396,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T12" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U12" s="184">
+        <f t="shared" si="21"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V12" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U12" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V12" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X12" s="245">
@@ -5482,15 +5482,15 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T13" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U13" s="184">
+        <f t="shared" si="21"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V13" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U13" s="184">
-        <f t="shared" si="20"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V13" s="184">
-        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
       <c r="X13" s="245">
@@ -5568,15 +5568,15 @@
         <v>149.16047500000002</v>
       </c>
       <c r="T14" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U14" s="184">
+        <f t="shared" si="21"/>
+        <v>452.50829500000003</v>
+      </c>
+      <c r="V14" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U14" s="184">
-        <f t="shared" si="20"/>
-        <v>452.50829500000003</v>
-      </c>
-      <c r="V14" s="184">
-        <f t="shared" si="21"/>
         <v>1.1031325831356671</v>
       </c>
       <c r="X14" s="245">
@@ -5648,15 +5648,15 @@
         <v>165.70235</v>
       </c>
       <c r="T15" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U15" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V15" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U15" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V15" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X15" s="245">
@@ -5731,15 +5731,15 @@
         <v>165.70235</v>
       </c>
       <c r="T16" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U16" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V16" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U16" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V16" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X16" s="245">
@@ -5817,15 +5817,15 @@
         <v>165.70235</v>
       </c>
       <c r="T17" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U17" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V17" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U17" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V17" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X17" s="245">
@@ -5904,15 +5904,15 @@
         <v>165.70235</v>
       </c>
       <c r="T18" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U18" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V18" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U18" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V18" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X18" s="245">
@@ -5990,15 +5990,15 @@
         <v>165.70235</v>
       </c>
       <c r="T19" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U19" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V19" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U19" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V19" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X19" s="245">
@@ -6076,15 +6076,15 @@
         <v>165.70235</v>
       </c>
       <c r="T20" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U20" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V20" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U20" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V20" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X20" s="245">
@@ -6156,15 +6156,15 @@
         <v>165.70235</v>
       </c>
       <c r="T21" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U21" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V21" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U21" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V21" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X21" s="245">
@@ -6236,15 +6236,15 @@
         <v>165.70235</v>
       </c>
       <c r="T22" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U22" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V22" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U22" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V22" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X22" s="245">
@@ -6322,15 +6322,15 @@
         <v>165.70235</v>
       </c>
       <c r="T23" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U23" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V23" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U23" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V23" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X23" s="245">
@@ -6409,15 +6409,15 @@
         <v>165.70235</v>
       </c>
       <c r="T24" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U24" s="184">
+        <f t="shared" si="21"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V24" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U24" s="184">
-        <f t="shared" si="20"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V24" s="184">
-        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
       <c r="X24" s="245">
@@ -6495,15 +6495,15 @@
         <v>168.46715</v>
       </c>
       <c r="T25" s="118">
+        <f t="shared" si="20"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U25" s="184">
+        <f t="shared" si="21"/>
+        <v>471.81497000000002</v>
+      </c>
+      <c r="V25" s="184">
         <f t="shared" si="19"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U25" s="184">
-        <f t="shared" si="20"/>
-        <v>471.81497000000002</v>
-      </c>
-      <c r="V25" s="184">
-        <f t="shared" si="21"/>
         <v>1.1501987308722756</v>
       </c>
       <c r="X25" s="245">
@@ -6581,15 +6581,15 @@
         <v>177.30226249999998</v>
       </c>
       <c r="T26" s="119">
+        <f t="shared" si="20"/>
+        <v>259.26607999999999</v>
+      </c>
+      <c r="U26" s="178">
+        <f t="shared" si="21"/>
+        <v>480.3766425</v>
+      </c>
+      <c r="V26" s="178">
         <f t="shared" si="19"/>
-        <v>259.26607999999999</v>
-      </c>
-      <c r="U26" s="178">
-        <f t="shared" si="20"/>
-        <v>480.3766425</v>
-      </c>
-      <c r="V26" s="178">
-        <f t="shared" si="21"/>
         <v>1.1696476825045896</v>
       </c>
       <c r="X26" s="245">
@@ -6667,15 +6667,15 @@
         <v>190.51264999999995</v>
       </c>
       <c r="T27" s="119">
+        <f t="shared" si="20"/>
+        <v>241.56657000000001</v>
+      </c>
+      <c r="U27" s="178">
+        <f t="shared" si="21"/>
+        <v>475.35311124999998</v>
+      </c>
+      <c r="V27" s="178">
         <f t="shared" si="19"/>
-        <v>241.56657000000001</v>
-      </c>
-      <c r="U27" s="178">
-        <f t="shared" si="20"/>
-        <v>475.35311124999998</v>
-      </c>
-      <c r="V27" s="178">
-        <f t="shared" si="21"/>
         <v>1.0966102110848375</v>
       </c>
       <c r="X27" s="245">
@@ -6754,15 +6754,15 @@
         <v>208.98676249999994</v>
       </c>
       <c r="T28" s="120">
+        <f t="shared" si="20"/>
+        <v>410.11291000000006</v>
+      </c>
+      <c r="U28" s="181">
+        <f t="shared" si="21"/>
+        <v>670.50944750000008</v>
+      </c>
+      <c r="V28" s="181">
         <f t="shared" si="19"/>
-        <v>410.11291000000006</v>
-      </c>
-      <c r="U28" s="181">
-        <f t="shared" si="20"/>
-        <v>670.50944750000008</v>
-      </c>
-      <c r="V28" s="181">
-        <f t="shared" si="21"/>
         <v>0.93195950237816605</v>
       </c>
       <c r="X28" s="246">
@@ -6828,48 +6828,48 @@
       <c r="N31" s="73"/>
     </row>
     <row r="32" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="264" t="s">
+      <c r="H32" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="261" t="s">
+      <c r="I32" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="262"/>
-      <c r="K32" s="262"/>
-      <c r="L32" s="263"/>
-      <c r="M32" s="257" t="s">
+      <c r="J32" s="259"/>
+      <c r="K32" s="259"/>
+      <c r="L32" s="260"/>
+      <c r="M32" s="271" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="258"/>
-      <c r="O32" s="258"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="253" t="s">
+      <c r="N32" s="272"/>
+      <c r="O32" s="272"/>
+      <c r="P32" s="273"/>
+      <c r="Q32" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="R32" s="253" t="s">
+      <c r="R32" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="S32" s="253" t="s">
+      <c r="S32" s="267" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="266" t="s">
+      <c r="T32" s="263" t="s">
         <v>60</v>
       </c>
-      <c r="U32" s="268" t="s">
+      <c r="U32" s="265" t="s">
         <v>63</v>
       </c>
-      <c r="V32" s="268" t="s">
+      <c r="V32" s="265" t="s">
         <v>70</v>
       </c>
-      <c r="W32" s="255" t="s">
+      <c r="W32" s="269" t="s">
         <v>72</v>
       </c>
-      <c r="X32" s="253" t="s">
+      <c r="X32" s="267" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="265"/>
+      <c r="H33" s="262"/>
       <c r="I33" s="100" t="s">
         <v>13</v>
       </c>
@@ -6894,14 +6894,14 @@
       <c r="P33" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="Q33" s="260"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="260"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="269"/>
-      <c r="V33" s="269"/>
-      <c r="W33" s="256"/>
-      <c r="X33" s="254"/>
+      <c r="Q33" s="274"/>
+      <c r="R33" s="274"/>
+      <c r="S33" s="274"/>
+      <c r="T33" s="264"/>
+      <c r="U33" s="266"/>
+      <c r="V33" s="266"/>
+      <c r="W33" s="270"/>
+      <c r="X33" s="268"/>
     </row>
     <row r="34" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H34" s="96" t="str">
@@ -9479,17 +9479,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
     <mergeCell ref="X32:X33"/>
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S32:S33"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9505,7 +9505,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R15"/>
     </sheetView>
   </sheetViews>
@@ -11967,498 +11967,498 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F28" s="279" t="s">
+      <c r="F28" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="279" t="s">
+      <c r="G28" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="279" t="s">
+      <c r="H28" s="254" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="279" t="str">
-        <f>Q2</f>
+      <c r="I28" s="254" t="str">
+        <f t="shared" ref="I28:I52" si="14">Q2</f>
         <v>Densidad muro x</v>
       </c>
-      <c r="J28" s="279" t="str">
-        <f>R2</f>
+      <c r="J28" s="254" t="str">
+        <f t="shared" ref="J28:J52" si="15">R2</f>
         <v>Densidad muro y</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F29" s="278">
+      <c r="F29" s="253">
         <v>23</v>
       </c>
-      <c r="G29" s="278">
+      <c r="G29" s="253">
         <v>0.2</v>
       </c>
-      <c r="H29" s="278">
+      <c r="H29" s="253">
         <v>0.2</v>
       </c>
-      <c r="I29" s="281">
-        <f>Q3</f>
+      <c r="I29" s="256">
+        <f t="shared" si="14"/>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="J29" s="281">
-        <f>R3</f>
+      <c r="J29" s="256">
+        <f t="shared" si="15"/>
         <v>2.9800042021805778E-2</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F30" s="278">
+      <c r="F30" s="253">
         <v>22</v>
       </c>
-      <c r="G30" s="278">
+      <c r="G30" s="253">
         <v>0.2</v>
       </c>
-      <c r="H30" s="278">
+      <c r="H30" s="253">
         <v>0.2</v>
       </c>
-      <c r="I30" s="281">
-        <f>Q4</f>
+      <c r="I30" s="256">
+        <f t="shared" si="14"/>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="J30" s="281">
-        <f>R4</f>
+      <c r="J30" s="256">
+        <f t="shared" si="15"/>
         <v>2.9800042021805778E-2</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F31" s="278">
+      <c r="F31" s="253">
         <f>F30-1</f>
         <v>21</v>
       </c>
-      <c r="G31" s="278">
+      <c r="G31" s="253">
         <v>0.2</v>
       </c>
-      <c r="H31" s="278">
+      <c r="H31" s="253">
         <v>0.2</v>
       </c>
-      <c r="I31" s="281">
-        <f>Q5</f>
+      <c r="I31" s="256">
+        <f t="shared" si="14"/>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="J31" s="281">
-        <f>R5</f>
+      <c r="J31" s="256">
+        <f t="shared" si="15"/>
         <v>2.9800042021805778E-2</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F32" s="278">
-        <f t="shared" ref="F32:H51" si="14">F31-1</f>
+      <c r="F32" s="253">
+        <f t="shared" ref="F32:F51" si="16">F31-1</f>
         <v>20</v>
       </c>
-      <c r="G32" s="278">
+      <c r="G32" s="253">
         <v>0.2</v>
       </c>
-      <c r="H32" s="278">
+      <c r="H32" s="253">
         <v>0.2</v>
       </c>
-      <c r="I32" s="281">
-        <f>Q6</f>
+      <c r="I32" s="256">
+        <f t="shared" si="14"/>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="J32" s="281">
-        <f>R6</f>
+      <c r="J32" s="256">
+        <f t="shared" si="15"/>
         <v>2.9800042021805778E-2</v>
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F33" s="278">
+      <c r="F33" s="253">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="G33" s="253">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="253">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="256">
         <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="G33" s="278">
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J33" s="256">
+        <f t="shared" si="15"/>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" s="253">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="G34" s="253">
         <v>0.2</v>
       </c>
-      <c r="H33" s="278">
+      <c r="H34" s="253">
         <v>0.2</v>
       </c>
-      <c r="I33" s="281">
-        <f>Q7</f>
+      <c r="I34" s="256">
+        <f t="shared" si="14"/>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="J33" s="281">
-        <f>R7</f>
+      <c r="J34" s="256">
+        <f t="shared" si="15"/>
         <v>2.9800042021805778E-2</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F34" s="278">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="253">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="G35" s="253">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="253">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="256">
         <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="G34" s="278">
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J35" s="256">
+        <f t="shared" si="15"/>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="253">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="G36" s="253">
         <v>0.2</v>
       </c>
-      <c r="H34" s="278">
+      <c r="H36" s="253">
         <v>0.2</v>
       </c>
-      <c r="I34" s="281">
-        <f>Q8</f>
+      <c r="I36" s="256">
+        <f t="shared" si="14"/>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="J34" s="281">
-        <f>R8</f>
+      <c r="J36" s="256">
+        <f t="shared" si="15"/>
         <v>2.9800042021805778E-2</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F35" s="278">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" s="253">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="G37" s="253">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="253">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="256">
         <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="G35" s="278">
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J37" s="256">
+        <f t="shared" si="15"/>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" s="253">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="G38" s="253">
         <v>0.2</v>
       </c>
-      <c r="H35" s="278">
+      <c r="H38" s="253">
         <v>0.2</v>
       </c>
-      <c r="I35" s="281">
-        <f>Q9</f>
-        <v>2.7582505765341134E-2</v>
-      </c>
-      <c r="J35" s="281">
-        <f>R9</f>
-        <v>2.9800042021805778E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="278">
+      <c r="I38" s="256">
         <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="G36" s="278">
-        <v>0.2</v>
-      </c>
-      <c r="H36" s="278">
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="281">
-        <f>Q10</f>
-        <v>2.7582505765341134E-2</v>
-      </c>
-      <c r="J36" s="281">
-        <f>R10</f>
-        <v>2.9800042021805778E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F37" s="278">
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J38" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" s="253">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="G39" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I39" s="256">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="G37" s="278">
-        <v>0.2</v>
-      </c>
-      <c r="H37" s="278">
-        <v>0.2</v>
-      </c>
-      <c r="I37" s="281">
-        <f>Q11</f>
-        <v>2.7582505765341134E-2</v>
-      </c>
-      <c r="J37" s="281">
-        <f>R11</f>
-        <v>2.9800042021805778E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F38" s="278">
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J39" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="253">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="G40" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="256">
         <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="G38" s="278">
-        <v>0.2</v>
-      </c>
-      <c r="H38" s="278">
-        <v>0.2</v>
-      </c>
-      <c r="I38" s="281">
-        <f>Q12</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="J38" s="281">
-        <f>R12</f>
+      <c r="J40" s="256">
+        <f t="shared" si="15"/>
         <v>3.7250052527257223E-2</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F39" s="278">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F41" s="253">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="G41" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I41" s="256">
         <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="G39" s="278">
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J41" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F42" s="253">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="253">
         <v>0.25</v>
       </c>
-      <c r="H39" s="278">
+      <c r="H42" s="253">
         <v>0.25</v>
       </c>
-      <c r="I39" s="281">
-        <f>Q13</f>
+      <c r="I42" s="256">
+        <f t="shared" si="14"/>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="J39" s="281">
-        <f>R13</f>
+      <c r="J42" s="256">
+        <f t="shared" si="15"/>
         <v>3.7250052527257223E-2</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F40" s="278">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F43" s="253">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="G43" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="256">
         <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="G40" s="278">
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J43" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F44" s="253">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="G44" s="253">
         <v>0.25</v>
       </c>
-      <c r="H40" s="278">
+      <c r="H44" s="253">
         <v>0.25</v>
       </c>
-      <c r="I40" s="281">
-        <f>Q14</f>
+      <c r="I44" s="256">
+        <f t="shared" si="14"/>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="J40" s="281">
-        <f>R14</f>
+      <c r="J44" s="256">
+        <f t="shared" si="15"/>
         <v>3.7250052527257223E-2</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F41" s="278">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F45" s="253">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="G45" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H45" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I45" s="256">
         <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="G41" s="278">
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J45" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F46" s="253">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="G46" s="253">
         <v>0.25</v>
       </c>
-      <c r="H41" s="278">
+      <c r="H46" s="253">
         <v>0.25</v>
       </c>
-      <c r="I41" s="281">
-        <f>Q15</f>
+      <c r="I46" s="256">
+        <f t="shared" si="14"/>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="J41" s="281">
-        <f>R15</f>
+      <c r="J46" s="256">
+        <f t="shared" si="15"/>
         <v>3.7250052527257223E-2</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F42" s="278">
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F47" s="253">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="256">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="G42" s="278">
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J47" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F48" s="253">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G48" s="253">
         <v>0.25</v>
       </c>
-      <c r="H42" s="278">
+      <c r="H48" s="253">
         <v>0.25</v>
       </c>
-      <c r="I42" s="281">
-        <f>Q16</f>
+      <c r="I48" s="256">
+        <f t="shared" si="14"/>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="J42" s="281">
-        <f>R16</f>
+      <c r="J48" s="256">
+        <f t="shared" si="15"/>
         <v>3.7250052527257223E-2</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F43" s="278">
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F49" s="253">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G49" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="H49" s="253">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="256">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="G43" s="278">
+        <v>3.6908308926089733E-2</v>
+      </c>
+      <c r="J49" s="256">
+        <f t="shared" si="15"/>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F50" s="253">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="253">
         <v>0.25</v>
       </c>
-      <c r="H43" s="278">
+      <c r="H50" s="253">
         <v>0.25</v>
       </c>
-      <c r="I43" s="281">
-        <f>Q17</f>
-        <v>3.4478132206676414E-2</v>
-      </c>
-      <c r="J43" s="281">
-        <f>R17</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F44" s="278">
+      <c r="I50" s="256">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="G44" s="278">
+        <v>4.1280080450360308E-2</v>
+      </c>
+      <c r="J50" s="256">
+        <f t="shared" si="15"/>
+        <v>3.8264455292441095E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F51" s="253">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="253">
         <v>0.25</v>
       </c>
-      <c r="H44" s="278">
+      <c r="H51" s="253">
+        <v>0.3</v>
+      </c>
+      <c r="I51" s="256">
+        <f t="shared" si="14"/>
+        <v>4.3016939379801215E-2</v>
+      </c>
+      <c r="J51" s="256">
+        <f t="shared" si="15"/>
+        <v>4.0555667226661408E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="255">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="255">
         <v>0.25</v>
       </c>
-      <c r="I44" s="281">
-        <f>Q18</f>
-        <v>3.4478132206676414E-2</v>
-      </c>
-      <c r="J44" s="281">
-        <f>R18</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F45" s="278">
+      <c r="H52" s="255">
+        <v>0.3</v>
+      </c>
+      <c r="I52" s="257">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="G45" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H45" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="I45" s="281">
-        <f>Q19</f>
-        <v>3.4478132206676414E-2</v>
-      </c>
-      <c r="J45" s="281">
-        <f>R19</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F46" s="278">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G46" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H46" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="I46" s="281">
-        <f>Q20</f>
-        <v>3.4478132206676414E-2</v>
-      </c>
-      <c r="J46" s="281">
-        <f>R20</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F47" s="278">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G47" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H47" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="I47" s="281">
-        <f>Q21</f>
-        <v>3.4478132206676414E-2</v>
-      </c>
-      <c r="J47" s="281">
-        <f>R21</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F48" s="278">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="G48" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H48" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="I48" s="281">
-        <f>Q22</f>
-        <v>3.4478132206676414E-2</v>
-      </c>
-      <c r="J48" s="281">
-        <f>R22</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F49" s="278">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="G49" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H49" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="I49" s="281">
-        <f>Q23</f>
-        <v>3.6908308926089733E-2</v>
-      </c>
-      <c r="J49" s="281">
-        <f>R23</f>
-        <v>3.7250052527257223E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F50" s="278">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G50" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H50" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="I50" s="281">
-        <f>Q24</f>
-        <v>4.1280080450360308E-2</v>
-      </c>
-      <c r="J50" s="281">
-        <f>R24</f>
-        <v>3.8264455292441095E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F51" s="278">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="278">
-        <v>0.25</v>
-      </c>
-      <c r="H51" s="278">
-        <v>0.3</v>
-      </c>
-      <c r="I51" s="281">
-        <f>Q25</f>
-        <v>4.3016939379801215E-2</v>
-      </c>
-      <c r="J51" s="281">
-        <f>R25</f>
-        <v>4.0555667226661408E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F52" s="280">
-        <v>-1</v>
-      </c>
-      <c r="G52" s="280">
-        <v>0.25</v>
-      </c>
-      <c r="H52" s="280">
-        <v>0.3</v>
-      </c>
-      <c r="I52" s="282">
-        <f>Q26</f>
         <v>2.8790286765056721E-2</v>
       </c>
-      <c r="J52" s="282">
-        <f>R26</f>
+      <c r="J52" s="257">
+        <f t="shared" si="15"/>
         <v>2.7100454023262721E-2</v>
       </c>
     </row>
@@ -12521,37 +12521,37 @@
       <c r="B1" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="270" t="s">
+      <c r="C1" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="272" t="s">
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="270" t="s">
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="S1" s="272" t="s">
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="S1" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
+      <c r="T1" s="278"/>
+      <c r="U1" s="278"/>
+      <c r="V1" s="278"/>
+      <c r="W1" s="278"/>
+      <c r="X1" s="278"/>
+      <c r="Y1" s="278"/>
+      <c r="Z1" s="278"/>
       <c r="AA1" s="146"/>
     </row>
     <row r="2" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19137,30 +19137,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="279" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276" t="s">
+      <c r="C3" s="280"/>
+      <c r="D3" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="277"/>
-      <c r="F3" s="275" t="s">
+      <c r="E3" s="282"/>
+      <c r="F3" s="280" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="275"/>
-      <c r="H3" s="276" t="s">
+      <c r="G3" s="280"/>
+      <c r="H3" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="275" t="s">
+      <c r="I3" s="282"/>
+      <c r="J3" s="280" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="275"/>
-      <c r="L3" s="276" t="s">
+      <c r="K3" s="280"/>
+      <c r="L3" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="277"/>
+      <c r="M3" s="282"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -28781,30 +28781,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="279" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276" t="s">
+      <c r="C3" s="280"/>
+      <c r="D3" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="277"/>
-      <c r="F3" s="275" t="s">
+      <c r="E3" s="282"/>
+      <c r="F3" s="280" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="275"/>
-      <c r="H3" s="276" t="s">
+      <c r="G3" s="280"/>
+      <c r="H3" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="275" t="s">
+      <c r="I3" s="282"/>
+      <c r="J3" s="280" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="275"/>
-      <c r="L3" s="276" t="s">
+      <c r="K3" s="280"/>
+      <c r="L3" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="277"/>
+      <c r="M3" s="282"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
